--- a/Output/Question3QueryOutput.xlsx
+++ b/Output/Question3QueryOutput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77723ffa69a62dde/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77723ffa69a62dde/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE848904-21B9-42F2-8901-B4EF96107054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D351BC-307B-4583-93B0-5E4E6BCC296D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C2A37103-B68F-41A5-8DA5-8F128D91E56B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>dept_no</t>
   </si>
@@ -40,6 +40,204 @@
   </si>
   <si>
     <t>first_name</t>
+  </si>
+  <si>
+    <t>d001</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Markovitch</t>
+  </si>
+  <si>
+    <t>Margareta</t>
+  </si>
+  <si>
+    <t>Minakawa</t>
+  </si>
+  <si>
+    <t>Vishwani</t>
+  </si>
+  <si>
+    <t>d002</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Alpin</t>
+  </si>
+  <si>
+    <t>Ebru</t>
+  </si>
+  <si>
+    <t>Legleitner</t>
+  </si>
+  <si>
+    <t>Isamu</t>
+  </si>
+  <si>
+    <t>d003</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Ossenbruggen</t>
+  </si>
+  <si>
+    <t>Shirish</t>
+  </si>
+  <si>
+    <t>Sigstam</t>
+  </si>
+  <si>
+    <t>Karsten</t>
+  </si>
+  <si>
+    <t>d004</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Wegerle</t>
+  </si>
+  <si>
+    <t>Krassimir</t>
+  </si>
+  <si>
+    <t>Cools</t>
+  </si>
+  <si>
+    <t>Rosine</t>
+  </si>
+  <si>
+    <t>Kieras</t>
+  </si>
+  <si>
+    <t>Shem</t>
+  </si>
+  <si>
+    <t>Ghazalie</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>d005</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Hagimont</t>
+  </si>
+  <si>
+    <t>DeForest</t>
+  </si>
+  <si>
+    <t>DasSarma</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>d006</t>
+  </si>
+  <si>
+    <t>Quality Management</t>
+  </si>
+  <si>
+    <t>Onuegbe</t>
+  </si>
+  <si>
+    <t>Peternela</t>
+  </si>
+  <si>
+    <t>Hofmeyr</t>
+  </si>
+  <si>
+    <t>Rutger</t>
+  </si>
+  <si>
+    <t>Quadeer</t>
+  </si>
+  <si>
+    <t>Sanjoy</t>
+  </si>
+  <si>
+    <t>Pesch</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>d007</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Kaelbling</t>
+  </si>
+  <si>
+    <t>Przemyslawa</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Hauke</t>
+  </si>
+  <si>
+    <t>d008</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Staelin</t>
+  </si>
+  <si>
+    <t>Arie</t>
+  </si>
+  <si>
+    <t>Kambil</t>
+  </si>
+  <si>
+    <t>Hilary</t>
+  </si>
+  <si>
+    <t>d009</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Butterworth</t>
+  </si>
+  <si>
+    <t>Tonny</t>
+  </si>
+  <si>
+    <t>Giarratana</t>
+  </si>
+  <si>
+    <t>Marjo</t>
+  </si>
+  <si>
+    <t>Spinelli</t>
+  </si>
+  <si>
+    <t>Xiaobin</t>
+  </si>
+  <si>
+    <t>Weedman</t>
+  </si>
+  <si>
+    <t>Yuchang</t>
   </si>
 </sst>
 </file>
@@ -408,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD5216-E815-4F2E-A93D-ADF2604D8D20}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +636,414 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>110022</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>110039</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>110085</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>110114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>110183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>110228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>110303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>110344</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>110386</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>110420</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>110511</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>110567</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>110725</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>110765</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>110800</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>110854</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>111035</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>111133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>111400</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>111534</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>111692</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>111784</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>111877</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>111939</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
